--- a/data/output/FV2404_FV2310/UTILMD/55186.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55186.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9626" uniqueCount="573">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9647" uniqueCount="573">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1936,6 +1936,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U431" totalsRowShown="0">
+  <autoFilter ref="A1:U431"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2225,7 +2255,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22627,5 +22660,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55186.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55186.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11716" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11542" uniqueCount="992">
   <si>
     <t>#</t>
   </si>
@@ -9746,46 +9746,44 @@
       <c r="V118" s="9"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2" t="s">
+      <c r="C119" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K119" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L119" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M119" s="2" t="s">
+      <c r="L119" s="7"/>
+      <c r="M119" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N119" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-      <c r="U119" s="2" t="s">
+      <c r="N119" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V119" s="2" t="s">
+      <c r="V119" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9952,46 +9950,44 @@
       <c r="V122" s="2"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2" t="s">
+      <c r="C123" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="L123" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M123" s="2" t="s">
+      <c r="L123" s="7"/>
+      <c r="M123" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N123" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2" t="s">
+      <c r="N123" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="V123" s="2" t="s">
+      <c r="V123" s="5" t="s">
         <v>429</v>
       </c>
     </row>
@@ -10158,46 +10154,44 @@
       <c r="V126" s="2"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2" t="s">
+      <c r="C127" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L127" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M127" s="2" t="s">
+      <c r="L127" s="7"/>
+      <c r="M127" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N127" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2" t="s">
+      <c r="N127" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V127" s="2" t="s">
+      <c r="V127" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -10364,46 +10358,44 @@
       <c r="V130" s="2"/>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2" t="s">
+      <c r="C131" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="L131" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M131" s="2" t="s">
+      <c r="L131" s="7"/>
+      <c r="M131" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N131" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2" t="s">
+      <c r="N131" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="V131" s="2" t="s">
+      <c r="V131" s="5" t="s">
         <v>430</v>
       </c>
     </row>
@@ -10678,46 +10670,44 @@
       <c r="V136" s="2"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2" t="s">
+      <c r="C137" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="K137" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L137" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M137" s="2" t="s">
+      <c r="L137" s="7"/>
+      <c r="M137" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N137" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2"/>
-      <c r="R137" s="2"/>
-      <c r="S137" s="2"/>
-      <c r="T137" s="2"/>
-      <c r="U137" s="2" t="s">
+      <c r="N137" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V137" s="2" t="s">
+      <c r="V137" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -10961,9 +10951,7 @@
         <v>344</v>
       </c>
       <c r="K142" s="2"/>
-      <c r="L142" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L142" s="7"/>
       <c r="M142" s="2" t="s">
         <v>52</v>
       </c>
@@ -11017,9 +11005,7 @@
         <v>344</v>
       </c>
       <c r="K143" s="2"/>
-      <c r="L143" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L143" s="7"/>
       <c r="M143" s="2" t="s">
         <v>52</v>
       </c>
@@ -11073,9 +11059,7 @@
         <v>344</v>
       </c>
       <c r="K144" s="2"/>
-      <c r="L144" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L144" s="7"/>
       <c r="M144" s="2" t="s">
         <v>52</v>
       </c>
@@ -11237,9 +11221,7 @@
         <v>374</v>
       </c>
       <c r="K147" s="2"/>
-      <c r="L147" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L147" s="7"/>
       <c r="M147" s="2" t="s">
         <v>53</v>
       </c>
@@ -11295,9 +11277,7 @@
       <c r="K148" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="L148" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L148" s="7"/>
       <c r="M148" s="2" t="s">
         <v>53</v>
       </c>
@@ -11326,46 +11306,44 @@
       </c>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2" t="s">
+      <c r="C149" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K149" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L149" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M149" s="2" t="s">
+      <c r="L149" s="7"/>
+      <c r="M149" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N149" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
-      <c r="U149" s="2" t="s">
+      <c r="N149" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V149" s="2" t="s">
+      <c r="V149" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -11563,9 +11541,7 @@
         <v>347</v>
       </c>
       <c r="K153" s="2"/>
-      <c r="L153" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L153" s="7"/>
       <c r="M153" s="2" t="s">
         <v>54</v>
       </c>
@@ -11592,46 +11568,44 @@
       <c r="V153" s="2"/>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2" t="s">
+      <c r="C154" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K154" s="2" t="s">
+      <c r="K154" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L154" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M154" s="2" t="s">
+      <c r="L154" s="7"/>
+      <c r="M154" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N154" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
-      <c r="Q154" s="2"/>
-      <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
-      <c r="T154" s="2"/>
-      <c r="U154" s="2" t="s">
+      <c r="N154" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V154" s="2" t="s">
+      <c r="V154" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -11771,9 +11745,7 @@
         <v>378</v>
       </c>
       <c r="K157" s="2"/>
-      <c r="L157" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L157" s="7"/>
       <c r="M157" s="2" t="s">
         <v>55</v>
       </c>
@@ -11935,9 +11907,7 @@
         <v>381</v>
       </c>
       <c r="K160" s="2"/>
-      <c r="L160" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L160" s="7"/>
       <c r="M160" s="2" t="s">
         <v>56</v>
       </c>
@@ -11991,9 +11961,7 @@
         <v>382</v>
       </c>
       <c r="K161" s="2"/>
-      <c r="L161" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L161" s="7"/>
       <c r="M161" s="2" t="s">
         <v>56</v>
       </c>
@@ -12220,46 +12188,44 @@
       <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2" t="s">
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="K167" s="2" t="s">
+      <c r="K167" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="L167" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M167" s="2" t="s">
+      <c r="L167" s="7"/>
+      <c r="M167" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N167" s="2" t="s">
+      <c r="N167" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="2"/>
-      <c r="U167" s="2" t="s">
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="5"/>
+      <c r="S167" s="5"/>
+      <c r="T167" s="5"/>
+      <c r="U167" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="V167" s="2" t="s">
+      <c r="V167" s="5" t="s">
         <v>435</v>
       </c>
     </row>
@@ -12534,46 +12500,44 @@
       </c>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2" t="s">
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="K173" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="L173" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M173" s="2" t="s">
+      <c r="L173" s="7"/>
+      <c r="M173" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N173" s="2" t="s">
+      <c r="N173" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2" t="s">
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="5"/>
+      <c r="S173" s="5"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="V173" s="2" t="s">
+      <c r="V173" s="5" t="s">
         <v>436</v>
       </c>
     </row>
@@ -12713,9 +12677,7 @@
         <v>344</v>
       </c>
       <c r="K176" s="2"/>
-      <c r="L176" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L176" s="7"/>
       <c r="M176" s="2" t="s">
         <v>40</v>
       </c>
@@ -12769,9 +12731,7 @@
         <v>344</v>
       </c>
       <c r="K177" s="2"/>
-      <c r="L177" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L177" s="7"/>
       <c r="M177" s="2" t="s">
         <v>40</v>
       </c>
@@ -12941,9 +12901,7 @@
         <v>344</v>
       </c>
       <c r="K180" s="2"/>
-      <c r="L180" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L180" s="7"/>
       <c r="M180" s="2" t="s">
         <v>40</v>
       </c>
@@ -12997,9 +12955,7 @@
         <v>344</v>
       </c>
       <c r="K181" s="2"/>
-      <c r="L181" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L181" s="7"/>
       <c r="M181" s="2" t="s">
         <v>40</v>
       </c>
@@ -13026,46 +12982,44 @@
       <c r="V181" s="2"/>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2" t="s">
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="K182" s="2" t="s">
+      <c r="K182" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="L182" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M182" s="2" t="s">
+      <c r="L182" s="7"/>
+      <c r="M182" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N182" s="2" t="s">
+      <c r="N182" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O182" s="2"/>
-      <c r="P182" s="2"/>
-      <c r="Q182" s="2"/>
-      <c r="R182" s="2"/>
-      <c r="S182" s="2"/>
-      <c r="T182" s="2"/>
-      <c r="U182" s="2" t="s">
+      <c r="O182" s="5"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="5"/>
+      <c r="S182" s="5"/>
+      <c r="T182" s="5"/>
+      <c r="U182" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="V182" s="2" t="s">
+      <c r="V182" s="5" t="s">
         <v>436</v>
       </c>
     </row>
@@ -13294,46 +13248,44 @@
       <c r="V186" s="2"/>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2" t="s">
+      <c r="C187" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="K187" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L187" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M187" s="2" t="s">
+      <c r="L187" s="7"/>
+      <c r="M187" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N187" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-      <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
-      <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="2" t="s">
+      <c r="N187" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O187" s="5"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+      <c r="R187" s="5"/>
+      <c r="S187" s="5"/>
+      <c r="T187" s="5"/>
+      <c r="U187" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V187" s="2" t="s">
+      <c r="V187" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -13500,46 +13452,44 @@
       <c r="V190" s="2"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2" t="s">
+      <c r="C191" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="K191" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="L191" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M191" s="2" t="s">
+      <c r="L191" s="7"/>
+      <c r="M191" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N191" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="2"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="2" t="s">
+      <c r="N191" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="5"/>
+      <c r="T191" s="5"/>
+      <c r="U191" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="V191" s="2" t="s">
+      <c r="V191" s="5" t="s">
         <v>436</v>
       </c>
     </row>
@@ -13706,46 +13656,44 @@
       <c r="V194" s="2"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2" t="s">
+      <c r="C195" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K195" s="2" t="s">
+      <c r="K195" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L195" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M195" s="2" t="s">
+      <c r="L195" s="7"/>
+      <c r="M195" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N195" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="2"/>
-      <c r="R195" s="2"/>
-      <c r="S195" s="2"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="2" t="s">
+      <c r="N195" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="5"/>
+      <c r="S195" s="5"/>
+      <c r="T195" s="5"/>
+      <c r="U195" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V195" s="2" t="s">
+      <c r="V195" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -13912,46 +13860,44 @@
       <c r="V198" s="2"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2" t="s">
+      <c r="C199" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K199" s="2" t="s">
+      <c r="K199" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L199" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M199" s="2" t="s">
+      <c r="L199" s="7"/>
+      <c r="M199" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N199" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2" t="s">
+      <c r="N199" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O199" s="5"/>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
+      <c r="R199" s="5"/>
+      <c r="S199" s="5"/>
+      <c r="T199" s="5"/>
+      <c r="U199" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V199" s="2" t="s">
+      <c r="V199" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -14222,46 +14168,44 @@
       <c r="V204" s="2"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2" t="s">
+      <c r="C205" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K205" s="2" t="s">
+      <c r="K205" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L205" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M205" s="2" t="s">
+      <c r="L205" s="7"/>
+      <c r="M205" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N205" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2" t="s">
+      <c r="N205" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V205" s="2" t="s">
+      <c r="V205" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -14505,9 +14449,7 @@
         <v>344</v>
       </c>
       <c r="K210" s="2"/>
-      <c r="L210" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L210" s="7"/>
       <c r="M210" s="2" t="s">
         <v>52</v>
       </c>
@@ -14561,9 +14503,7 @@
         <v>344</v>
       </c>
       <c r="K211" s="2"/>
-      <c r="L211" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L211" s="7"/>
       <c r="M211" s="2" t="s">
         <v>52</v>
       </c>
@@ -14617,9 +14557,7 @@
         <v>344</v>
       </c>
       <c r="K212" s="2"/>
-      <c r="L212" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L212" s="7"/>
       <c r="M212" s="2" t="s">
         <v>52</v>
       </c>
@@ -14781,9 +14719,7 @@
         <v>344</v>
       </c>
       <c r="K215" s="2"/>
-      <c r="L215" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L215" s="7"/>
       <c r="M215" s="2" t="s">
         <v>53</v>
       </c>
@@ -14837,9 +14773,7 @@
         <v>344</v>
       </c>
       <c r="K216" s="2"/>
-      <c r="L216" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L216" s="7"/>
       <c r="M216" s="2" t="s">
         <v>53</v>
       </c>
@@ -14866,46 +14800,44 @@
       <c r="V216" s="2"/>
     </row>
     <row r="217" spans="1:22">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2" t="s">
+      <c r="C217" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K217" s="2" t="s">
+      <c r="K217" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L217" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M217" s="2" t="s">
+      <c r="L217" s="7"/>
+      <c r="M217" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N217" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="2"/>
-      <c r="U217" s="2" t="s">
+      <c r="N217" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O217" s="5"/>
+      <c r="P217" s="5"/>
+      <c r="Q217" s="5"/>
+      <c r="R217" s="5"/>
+      <c r="S217" s="5"/>
+      <c r="T217" s="5"/>
+      <c r="U217" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V217" s="2" t="s">
+      <c r="V217" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -15103,9 +15035,7 @@
         <v>344</v>
       </c>
       <c r="K221" s="2"/>
-      <c r="L221" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L221" s="7"/>
       <c r="M221" s="2" t="s">
         <v>54</v>
       </c>
@@ -15132,46 +15062,44 @@
       <c r="V221" s="2"/>
     </row>
     <row r="222" spans="1:22">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2" t="s">
+      <c r="C222" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K222" s="2" t="s">
+      <c r="K222" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L222" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M222" s="2" t="s">
+      <c r="L222" s="7"/>
+      <c r="M222" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N222" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
-      <c r="Q222" s="2"/>
-      <c r="R222" s="2"/>
-      <c r="S222" s="2"/>
-      <c r="T222" s="2"/>
-      <c r="U222" s="2" t="s">
+      <c r="N222" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O222" s="5"/>
+      <c r="P222" s="5"/>
+      <c r="Q222" s="5"/>
+      <c r="R222" s="5"/>
+      <c r="S222" s="5"/>
+      <c r="T222" s="5"/>
+      <c r="U222" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V222" s="2" t="s">
+      <c r="V222" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -15313,9 +15241,7 @@
       <c r="K225" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="L225" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L225" s="7"/>
       <c r="M225" s="2" t="s">
         <v>55</v>
       </c>
@@ -15479,9 +15405,7 @@
         <v>347</v>
       </c>
       <c r="K228" s="2"/>
-      <c r="L228" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L228" s="7"/>
       <c r="M228" s="2" t="s">
         <v>56</v>
       </c>
@@ -15535,9 +15459,7 @@
         <v>347</v>
       </c>
       <c r="K229" s="2"/>
-      <c r="L229" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L229" s="7"/>
       <c r="M229" s="2" t="s">
         <v>56</v>
       </c>
@@ -15762,46 +15684,44 @@
       <c r="V234" s="2"/>
     </row>
     <row r="235" spans="1:22">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2" t="s">
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="K235" s="2" t="s">
+      <c r="K235" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="L235" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M235" s="2" t="s">
+      <c r="L235" s="7"/>
+      <c r="M235" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N235" s="2" t="s">
+      <c r="N235" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O235" s="2"/>
-      <c r="P235" s="2"/>
-      <c r="Q235" s="2"/>
-      <c r="R235" s="2"/>
-      <c r="S235" s="2"/>
-      <c r="T235" s="2"/>
-      <c r="U235" s="2" t="s">
+      <c r="O235" s="5"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="S235" s="5"/>
+      <c r="T235" s="5"/>
+      <c r="U235" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="V235" s="2" t="s">
+      <c r="V235" s="5" t="s">
         <v>438</v>
       </c>
     </row>
@@ -16296,46 +16216,44 @@
       <c r="V244" s="2"/>
     </row>
     <row r="245" spans="1:22">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2" t="s">
+      <c r="C245" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K245" s="2" t="s">
+      <c r="K245" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L245" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M245" s="2" t="s">
+      <c r="L245" s="7"/>
+      <c r="M245" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N245" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O245" s="2"/>
-      <c r="P245" s="2"/>
-      <c r="Q245" s="2"/>
-      <c r="R245" s="2"/>
-      <c r="S245" s="2"/>
-      <c r="T245" s="2"/>
-      <c r="U245" s="2" t="s">
+      <c r="N245" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O245" s="5"/>
+      <c r="P245" s="5"/>
+      <c r="Q245" s="5"/>
+      <c r="R245" s="5"/>
+      <c r="S245" s="5"/>
+      <c r="T245" s="5"/>
+      <c r="U245" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V245" s="2" t="s">
+      <c r="V245" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -16556,46 +16474,44 @@
       <c r="V249" s="2"/>
     </row>
     <row r="250" spans="1:22">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2" t="s">
+      <c r="C250" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K250" s="2" t="s">
+      <c r="K250" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L250" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M250" s="2" t="s">
+      <c r="L250" s="7"/>
+      <c r="M250" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N250" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O250" s="2"/>
-      <c r="P250" s="2"/>
-      <c r="Q250" s="2"/>
-      <c r="R250" s="2"/>
-      <c r="S250" s="2"/>
-      <c r="T250" s="2"/>
-      <c r="U250" s="2" t="s">
+      <c r="N250" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O250" s="5"/>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="5"/>
+      <c r="R250" s="5"/>
+      <c r="S250" s="5"/>
+      <c r="T250" s="5"/>
+      <c r="U250" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V250" s="2" t="s">
+      <c r="V250" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -16843,9 +16759,7 @@
         <v>390</v>
       </c>
       <c r="K255" s="2"/>
-      <c r="L255" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L255" s="7"/>
       <c r="M255" s="2" t="s">
         <v>62</v>
       </c>
@@ -16872,46 +16786,44 @@
       <c r="V255" s="2"/>
     </row>
     <row r="256" spans="1:22">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="2" t="s">
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="K256" s="2" t="s">
+      <c r="K256" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="L256" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M256" s="2" t="s">
+      <c r="L256" s="7"/>
+      <c r="M256" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N256" s="2" t="s">
+      <c r="N256" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O256" s="2"/>
-      <c r="P256" s="2"/>
-      <c r="Q256" s="2"/>
-      <c r="R256" s="2"/>
-      <c r="S256" s="2"/>
-      <c r="T256" s="2"/>
-      <c r="U256" s="2" t="s">
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
+      <c r="R256" s="5"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="V256" s="2" t="s">
+      <c r="V256" s="5" t="s">
         <v>440</v>
       </c>
     </row>
@@ -17240,44 +17152,42 @@
       <c r="V262" s="2"/>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2" t="s">
+      <c r="C263" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K263" s="2"/>
-      <c r="L263" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M263" s="2" t="s">
+      <c r="K263" s="5"/>
+      <c r="L263" s="7"/>
+      <c r="M263" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N263" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2"/>
-      <c r="Q263" s="2"/>
-      <c r="R263" s="2"/>
-      <c r="S263" s="2"/>
-      <c r="T263" s="2"/>
-      <c r="U263" s="2" t="s">
+      <c r="N263" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+      <c r="R263" s="5"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V263" s="2"/>
+      <c r="V263" s="5"/>
     </row>
     <row r="264" spans="1:22">
       <c r="A264" s="2" t="s">
@@ -17488,46 +17398,44 @@
       <c r="V267" s="2"/>
     </row>
     <row r="268" spans="1:22">
-      <c r="A268" s="2" t="s">
+      <c r="A268" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2" t="s">
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="K268" s="2" t="s">
+      <c r="K268" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="L268" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M268" s="2" t="s">
+      <c r="L268" s="7"/>
+      <c r="M268" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N268" s="2" t="s">
+      <c r="N268" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2"/>
-      <c r="Q268" s="2"/>
-      <c r="R268" s="2"/>
-      <c r="S268" s="2"/>
-      <c r="T268" s="2"/>
-      <c r="U268" s="2" t="s">
+      <c r="O268" s="5"/>
+      <c r="P268" s="5"/>
+      <c r="Q268" s="5"/>
+      <c r="R268" s="5"/>
+      <c r="S268" s="5"/>
+      <c r="T268" s="5"/>
+      <c r="U268" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="V268" s="2" t="s">
+      <c r="V268" s="5" t="s">
         <v>441</v>
       </c>
     </row>
@@ -17798,46 +17706,44 @@
       </c>
     </row>
     <row r="274" spans="1:22">
-      <c r="A274" s="2" t="s">
+      <c r="A274" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2" t="s">
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="K274" s="2" t="s">
+      <c r="K274" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="L274" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M274" s="2" t="s">
+      <c r="L274" s="7"/>
+      <c r="M274" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N274" s="2" t="s">
+      <c r="N274" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O274" s="2"/>
-      <c r="P274" s="2"/>
-      <c r="Q274" s="2"/>
-      <c r="R274" s="2"/>
-      <c r="S274" s="2"/>
-      <c r="T274" s="2"/>
-      <c r="U274" s="2" t="s">
+      <c r="O274" s="5"/>
+      <c r="P274" s="5"/>
+      <c r="Q274" s="5"/>
+      <c r="R274" s="5"/>
+      <c r="S274" s="5"/>
+      <c r="T274" s="5"/>
+      <c r="U274" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="V274" s="2" t="s">
+      <c r="V274" s="5" t="s">
         <v>442</v>
       </c>
     </row>
@@ -18066,46 +17972,44 @@
       <c r="V278" s="2"/>
     </row>
     <row r="279" spans="1:22">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
-      <c r="J279" s="2" t="s">
+      <c r="C279" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K279" s="2" t="s">
+      <c r="K279" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L279" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M279" s="2" t="s">
+      <c r="L279" s="7"/>
+      <c r="M279" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N279" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O279" s="2"/>
-      <c r="P279" s="2"/>
-      <c r="Q279" s="2"/>
-      <c r="R279" s="2"/>
-      <c r="S279" s="2"/>
-      <c r="T279" s="2"/>
-      <c r="U279" s="2" t="s">
+      <c r="N279" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O279" s="5"/>
+      <c r="P279" s="5"/>
+      <c r="Q279" s="5"/>
+      <c r="R279" s="5"/>
+      <c r="S279" s="5"/>
+      <c r="T279" s="5"/>
+      <c r="U279" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V279" s="2" t="s">
+      <c r="V279" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -18376,46 +18280,44 @@
       <c r="V284" s="2"/>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="2" t="s">
+      <c r="A285" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-      <c r="I285" s="2"/>
-      <c r="J285" s="2" t="s">
+      <c r="C285" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K285" s="2" t="s">
+      <c r="K285" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L285" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M285" s="2" t="s">
+      <c r="L285" s="7"/>
+      <c r="M285" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N285" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O285" s="2"/>
-      <c r="P285" s="2"/>
-      <c r="Q285" s="2"/>
-      <c r="R285" s="2"/>
-      <c r="S285" s="2"/>
-      <c r="T285" s="2"/>
-      <c r="U285" s="2" t="s">
+      <c r="N285" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O285" s="5"/>
+      <c r="P285" s="5"/>
+      <c r="Q285" s="5"/>
+      <c r="R285" s="5"/>
+      <c r="S285" s="5"/>
+      <c r="T285" s="5"/>
+      <c r="U285" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V285" s="2" t="s">
+      <c r="V285" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -18582,46 +18484,44 @@
       <c r="V288" s="2"/>
     </row>
     <row r="289" spans="1:22">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="2"/>
-      <c r="J289" s="2" t="s">
+      <c r="C289" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K289" s="2" t="s">
+      <c r="K289" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L289" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M289" s="2" t="s">
+      <c r="L289" s="7"/>
+      <c r="M289" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N289" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O289" s="2"/>
-      <c r="P289" s="2"/>
-      <c r="Q289" s="2"/>
-      <c r="R289" s="2"/>
-      <c r="S289" s="2"/>
-      <c r="T289" s="2"/>
-      <c r="U289" s="2" t="s">
+      <c r="N289" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O289" s="5"/>
+      <c r="P289" s="5"/>
+      <c r="Q289" s="5"/>
+      <c r="R289" s="5"/>
+      <c r="S289" s="5"/>
+      <c r="T289" s="5"/>
+      <c r="U289" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V289" s="2" t="s">
+      <c r="V289" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -18819,9 +18719,7 @@
         <v>344</v>
       </c>
       <c r="K293" s="2"/>
-      <c r="L293" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L293" s="7"/>
       <c r="M293" s="2" t="s">
         <v>68</v>
       </c>
@@ -18848,46 +18746,44 @@
       <c r="V293" s="2"/>
     </row>
     <row r="294" spans="1:22">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-      <c r="J294" s="2" t="s">
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="K294" s="2" t="s">
+      <c r="K294" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="L294" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M294" s="2" t="s">
+      <c r="L294" s="7"/>
+      <c r="M294" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N294" s="2" t="s">
+      <c r="N294" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O294" s="2"/>
-      <c r="P294" s="2"/>
-      <c r="Q294" s="2"/>
-      <c r="R294" s="2"/>
-      <c r="S294" s="2"/>
-      <c r="T294" s="2"/>
-      <c r="U294" s="2" t="s">
+      <c r="O294" s="5"/>
+      <c r="P294" s="5"/>
+      <c r="Q294" s="5"/>
+      <c r="R294" s="5"/>
+      <c r="S294" s="5"/>
+      <c r="T294" s="5"/>
+      <c r="U294" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="V294" s="2" t="s">
+      <c r="V294" s="5" t="s">
         <v>436</v>
       </c>
     </row>
@@ -18996,44 +18892,42 @@
       <c r="V296" s="2"/>
     </row>
     <row r="297" spans="1:22">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-      <c r="J297" s="2" t="s">
+      <c r="C297" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K297" s="2"/>
-      <c r="L297" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M297" s="2" t="s">
+      <c r="K297" s="5"/>
+      <c r="L297" s="7"/>
+      <c r="M297" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N297" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
-      <c r="Q297" s="2"/>
-      <c r="R297" s="2"/>
-      <c r="S297" s="2"/>
-      <c r="T297" s="2"/>
-      <c r="U297" s="2" t="s">
+      <c r="N297" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O297" s="5"/>
+      <c r="P297" s="5"/>
+      <c r="Q297" s="5"/>
+      <c r="R297" s="5"/>
+      <c r="S297" s="5"/>
+      <c r="T297" s="5"/>
+      <c r="U297" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V297" s="2"/>
+      <c r="V297" s="5"/>
     </row>
     <row r="298" spans="1:22">
       <c r="A298" s="2" t="s">
@@ -19198,46 +19092,44 @@
       <c r="V300" s="2"/>
     </row>
     <row r="301" spans="1:22">
-      <c r="A301" s="2" t="s">
+      <c r="A301" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
-      <c r="G301" s="2"/>
-      <c r="H301" s="2"/>
-      <c r="I301" s="2"/>
-      <c r="J301" s="2" t="s">
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="K301" s="2" t="s">
+      <c r="K301" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="L301" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M301" s="2" t="s">
+      <c r="L301" s="7"/>
+      <c r="M301" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N301" s="2" t="s">
+      <c r="N301" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O301" s="2"/>
-      <c r="P301" s="2"/>
-      <c r="Q301" s="2"/>
-      <c r="R301" s="2"/>
-      <c r="S301" s="2"/>
-      <c r="T301" s="2"/>
-      <c r="U301" s="2" t="s">
+      <c r="O301" s="5"/>
+      <c r="P301" s="5"/>
+      <c r="Q301" s="5"/>
+      <c r="R301" s="5"/>
+      <c r="S301" s="5"/>
+      <c r="T301" s="5"/>
+      <c r="U301" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="V301" s="2" t="s">
+      <c r="V301" s="5" t="s">
         <v>444</v>
       </c>
     </row>
@@ -19732,46 +19624,44 @@
       <c r="V310" s="2"/>
     </row>
     <row r="311" spans="1:22">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C311" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
-      <c r="G311" s="2"/>
-      <c r="H311" s="2"/>
-      <c r="I311" s="2"/>
-      <c r="J311" s="2" t="s">
+      <c r="C311" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K311" s="2" t="s">
+      <c r="K311" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L311" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M311" s="2" t="s">
+      <c r="L311" s="7"/>
+      <c r="M311" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N311" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O311" s="2"/>
-      <c r="P311" s="2"/>
-      <c r="Q311" s="2"/>
-      <c r="R311" s="2"/>
-      <c r="S311" s="2"/>
-      <c r="T311" s="2"/>
-      <c r="U311" s="2" t="s">
+      <c r="N311" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O311" s="5"/>
+      <c r="P311" s="5"/>
+      <c r="Q311" s="5"/>
+      <c r="R311" s="5"/>
+      <c r="S311" s="5"/>
+      <c r="T311" s="5"/>
+      <c r="U311" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V311" s="2" t="s">
+      <c r="V311" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -19992,46 +19882,44 @@
       <c r="V315" s="2"/>
     </row>
     <row r="316" spans="1:22">
-      <c r="A316" s="2" t="s">
+      <c r="A316" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C316" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D316" s="2"/>
-      <c r="E316" s="2"/>
-      <c r="F316" s="2"/>
-      <c r="G316" s="2"/>
-      <c r="H316" s="2"/>
-      <c r="I316" s="2"/>
-      <c r="J316" s="2" t="s">
+      <c r="C316" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D316" s="5"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
+      <c r="H316" s="5"/>
+      <c r="I316" s="5"/>
+      <c r="J316" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K316" s="2" t="s">
+      <c r="K316" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L316" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M316" s="2" t="s">
+      <c r="L316" s="7"/>
+      <c r="M316" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N316" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O316" s="2"/>
-      <c r="P316" s="2"/>
-      <c r="Q316" s="2"/>
-      <c r="R316" s="2"/>
-      <c r="S316" s="2"/>
-      <c r="T316" s="2"/>
-      <c r="U316" s="2" t="s">
+      <c r="N316" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O316" s="5"/>
+      <c r="P316" s="5"/>
+      <c r="Q316" s="5"/>
+      <c r="R316" s="5"/>
+      <c r="S316" s="5"/>
+      <c r="T316" s="5"/>
+      <c r="U316" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V316" s="2" t="s">
+      <c r="V316" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -20279,9 +20167,7 @@
         <v>390</v>
       </c>
       <c r="K321" s="2"/>
-      <c r="L321" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L321" s="7"/>
       <c r="M321" s="2" t="s">
         <v>62</v>
       </c>
@@ -20308,46 +20194,44 @@
       <c r="V321" s="2"/>
     </row>
     <row r="322" spans="1:22">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
-      <c r="F322" s="2"/>
-      <c r="G322" s="2"/>
-      <c r="H322" s="2"/>
-      <c r="I322" s="2"/>
-      <c r="J322" s="2" t="s">
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="K322" s="2" t="s">
+      <c r="K322" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="L322" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M322" s="2" t="s">
+      <c r="L322" s="7"/>
+      <c r="M322" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N322" s="2" t="s">
+      <c r="N322" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O322" s="2"/>
-      <c r="P322" s="2"/>
-      <c r="Q322" s="2"/>
-      <c r="R322" s="2"/>
-      <c r="S322" s="2"/>
-      <c r="T322" s="2"/>
-      <c r="U322" s="2" t="s">
+      <c r="O322" s="5"/>
+      <c r="P322" s="5"/>
+      <c r="Q322" s="5"/>
+      <c r="R322" s="5"/>
+      <c r="S322" s="5"/>
+      <c r="T322" s="5"/>
+      <c r="U322" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="V322" s="2" t="s">
+      <c r="V322" s="5" t="s">
         <v>436</v>
       </c>
     </row>
@@ -20676,44 +20560,42 @@
       <c r="V328" s="2"/>
     </row>
     <row r="329" spans="1:22">
-      <c r="A329" s="2" t="s">
+      <c r="A329" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C329" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-      <c r="F329" s="2"/>
-      <c r="G329" s="2"/>
-      <c r="H329" s="2"/>
-      <c r="I329" s="2"/>
-      <c r="J329" s="2" t="s">
+      <c r="C329" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="5"/>
+      <c r="I329" s="5"/>
+      <c r="J329" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K329" s="2"/>
-      <c r="L329" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M329" s="2" t="s">
+      <c r="K329" s="5"/>
+      <c r="L329" s="7"/>
+      <c r="M329" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N329" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O329" s="2"/>
-      <c r="P329" s="2"/>
-      <c r="Q329" s="2"/>
-      <c r="R329" s="2"/>
-      <c r="S329" s="2"/>
-      <c r="T329" s="2"/>
-      <c r="U329" s="2" t="s">
+      <c r="N329" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O329" s="5"/>
+      <c r="P329" s="5"/>
+      <c r="Q329" s="5"/>
+      <c r="R329" s="5"/>
+      <c r="S329" s="5"/>
+      <c r="T329" s="5"/>
+      <c r="U329" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V329" s="2"/>
+      <c r="V329" s="5"/>
     </row>
     <row r="330" spans="1:22">
       <c r="A330" s="2" t="s">
@@ -20928,46 +20810,44 @@
       <c r="V333" s="2"/>
     </row>
     <row r="334" spans="1:22">
-      <c r="A334" s="2" t="s">
+      <c r="A334" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="C334" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-      <c r="F334" s="2"/>
-      <c r="G334" s="2"/>
-      <c r="H334" s="2"/>
-      <c r="I334" s="2"/>
-      <c r="J334" s="2" t="s">
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="K334" s="2" t="s">
+      <c r="K334" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="L334" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M334" s="2" t="s">
+      <c r="L334" s="7"/>
+      <c r="M334" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N334" s="2" t="s">
+      <c r="N334" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O334" s="2"/>
-      <c r="P334" s="2"/>
-      <c r="Q334" s="2"/>
-      <c r="R334" s="2"/>
-      <c r="S334" s="2"/>
-      <c r="T334" s="2"/>
-      <c r="U334" s="2" t="s">
+      <c r="O334" s="5"/>
+      <c r="P334" s="5"/>
+      <c r="Q334" s="5"/>
+      <c r="R334" s="5"/>
+      <c r="S334" s="5"/>
+      <c r="T334" s="5"/>
+      <c r="U334" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="V334" s="2" t="s">
+      <c r="V334" s="5" t="s">
         <v>446</v>
       </c>
     </row>
@@ -21238,46 +21118,44 @@
       </c>
     </row>
     <row r="340" spans="1:22">
-      <c r="A340" s="2" t="s">
+      <c r="A340" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
-      <c r="F340" s="2"/>
-      <c r="G340" s="2"/>
-      <c r="H340" s="2"/>
-      <c r="I340" s="2"/>
-      <c r="J340" s="2" t="s">
+      <c r="C340" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="5"/>
+      <c r="I340" s="5"/>
+      <c r="J340" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K340" s="2" t="s">
+      <c r="K340" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L340" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M340" s="2" t="s">
+      <c r="L340" s="7"/>
+      <c r="M340" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N340" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O340" s="2"/>
-      <c r="P340" s="2"/>
-      <c r="Q340" s="2"/>
-      <c r="R340" s="2"/>
-      <c r="S340" s="2"/>
-      <c r="T340" s="2"/>
-      <c r="U340" s="2" t="s">
+      <c r="N340" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O340" s="5"/>
+      <c r="P340" s="5"/>
+      <c r="Q340" s="5"/>
+      <c r="R340" s="5"/>
+      <c r="S340" s="5"/>
+      <c r="T340" s="5"/>
+      <c r="U340" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V340" s="2" t="s">
+      <c r="V340" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -21419,9 +21297,7 @@
       <c r="K343" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="L343" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L343" s="7"/>
       <c r="M343" s="2" t="s">
         <v>75</v>
       </c>
@@ -21537,9 +21413,7 @@
       <c r="K345" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="L345" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L345" s="7"/>
       <c r="M345" s="2" t="s">
         <v>75</v>
       </c>
@@ -21672,46 +21546,44 @@
       <c r="V347" s="2"/>
     </row>
     <row r="348" spans="1:22">
-      <c r="A348" s="2" t="s">
+      <c r="A348" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C348" s="2" t="s">
+      <c r="C348" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D348" s="2"/>
-      <c r="E348" s="2"/>
-      <c r="F348" s="2"/>
-      <c r="G348" s="2"/>
-      <c r="H348" s="2"/>
-      <c r="I348" s="2"/>
-      <c r="J348" s="2" t="s">
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
+      <c r="I348" s="5"/>
+      <c r="J348" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="K348" s="2" t="s">
+      <c r="K348" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="L348" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M348" s="2" t="s">
+      <c r="L348" s="7"/>
+      <c r="M348" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N348" s="2" t="s">
+      <c r="N348" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O348" s="2"/>
-      <c r="P348" s="2"/>
-      <c r="Q348" s="2"/>
-      <c r="R348" s="2"/>
-      <c r="S348" s="2"/>
-      <c r="T348" s="2"/>
-      <c r="U348" s="2" t="s">
+      <c r="O348" s="5"/>
+      <c r="P348" s="5"/>
+      <c r="Q348" s="5"/>
+      <c r="R348" s="5"/>
+      <c r="S348" s="5"/>
+      <c r="T348" s="5"/>
+      <c r="U348" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="V348" s="2" t="s">
+      <c r="V348" s="5" t="s">
         <v>436</v>
       </c>
     </row>
@@ -21820,44 +21692,42 @@
       <c r="V350" s="2"/>
     </row>
     <row r="351" spans="1:22">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C351" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D351" s="2"/>
-      <c r="E351" s="2"/>
-      <c r="F351" s="2"/>
-      <c r="G351" s="2"/>
-      <c r="H351" s="2"/>
-      <c r="I351" s="2"/>
-      <c r="J351" s="2" t="s">
+      <c r="C351" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="5"/>
+      <c r="J351" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K351" s="2"/>
-      <c r="L351" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M351" s="2" t="s">
+      <c r="K351" s="5"/>
+      <c r="L351" s="7"/>
+      <c r="M351" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N351" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O351" s="2"/>
-      <c r="P351" s="2"/>
-      <c r="Q351" s="2"/>
-      <c r="R351" s="2"/>
-      <c r="S351" s="2"/>
-      <c r="T351" s="2"/>
-      <c r="U351" s="2" t="s">
+      <c r="N351" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O351" s="5"/>
+      <c r="P351" s="5"/>
+      <c r="Q351" s="5"/>
+      <c r="R351" s="5"/>
+      <c r="S351" s="5"/>
+      <c r="T351" s="5"/>
+      <c r="U351" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V351" s="2"/>
+      <c r="V351" s="5"/>
     </row>
     <row r="352" spans="1:22">
       <c r="A352" s="2" t="s">
@@ -21995,9 +21865,7 @@
         <v>344</v>
       </c>
       <c r="K354" s="2"/>
-      <c r="L354" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L354" s="7"/>
       <c r="M354" s="2" t="s">
         <v>75</v>
       </c>
@@ -22109,9 +21977,7 @@
         <v>344</v>
       </c>
       <c r="K356" s="2"/>
-      <c r="L356" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L356" s="7"/>
       <c r="M356" s="2" t="s">
         <v>75</v>
       </c>
@@ -22242,46 +22108,44 @@
       <c r="V358" s="2"/>
     </row>
     <row r="359" spans="1:22">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C359" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="2"/>
-      <c r="G359" s="2"/>
-      <c r="H359" s="2"/>
-      <c r="I359" s="2"/>
-      <c r="J359" s="2" t="s">
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
+      <c r="J359" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="K359" s="2" t="s">
+      <c r="K359" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="L359" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M359" s="2" t="s">
+      <c r="L359" s="7"/>
+      <c r="M359" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N359" s="2" t="s">
+      <c r="N359" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O359" s="2"/>
-      <c r="P359" s="2"/>
-      <c r="Q359" s="2"/>
-      <c r="R359" s="2"/>
-      <c r="S359" s="2"/>
-      <c r="T359" s="2"/>
-      <c r="U359" s="2" t="s">
+      <c r="O359" s="5"/>
+      <c r="P359" s="5"/>
+      <c r="Q359" s="5"/>
+      <c r="R359" s="5"/>
+      <c r="S359" s="5"/>
+      <c r="T359" s="5"/>
+      <c r="U359" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="V359" s="2" t="s">
+      <c r="V359" s="5" t="s">
         <v>449</v>
       </c>
     </row>
@@ -22552,46 +22416,44 @@
       </c>
     </row>
     <row r="365" spans="1:22">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C365" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
-      <c r="F365" s="2"/>
-      <c r="G365" s="2"/>
-      <c r="H365" s="2"/>
-      <c r="I365" s="2"/>
-      <c r="J365" s="2" t="s">
+      <c r="C365" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
+      <c r="J365" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K365" s="2" t="s">
+      <c r="K365" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L365" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M365" s="2" t="s">
+      <c r="L365" s="7"/>
+      <c r="M365" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N365" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O365" s="2"/>
-      <c r="P365" s="2"/>
-      <c r="Q365" s="2"/>
-      <c r="R365" s="2"/>
-      <c r="S365" s="2"/>
-      <c r="T365" s="2"/>
-      <c r="U365" s="2" t="s">
+      <c r="N365" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O365" s="5"/>
+      <c r="P365" s="5"/>
+      <c r="Q365" s="5"/>
+      <c r="R365" s="5"/>
+      <c r="S365" s="5"/>
+      <c r="T365" s="5"/>
+      <c r="U365" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V365" s="2" t="s">
+      <c r="V365" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -22804,46 +22666,44 @@
       <c r="V369" s="2"/>
     </row>
     <row r="370" spans="1:22">
-      <c r="A370" s="2" t="s">
+      <c r="A370" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C370" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D370" s="2"/>
-      <c r="E370" s="2"/>
-      <c r="F370" s="2"/>
-      <c r="G370" s="2"/>
-      <c r="H370" s="2"/>
-      <c r="I370" s="2"/>
-      <c r="J370" s="2" t="s">
+      <c r="C370" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="5"/>
+      <c r="J370" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K370" s="2" t="s">
+      <c r="K370" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L370" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M370" s="2" t="s">
+      <c r="L370" s="7"/>
+      <c r="M370" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N370" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O370" s="2"/>
-      <c r="P370" s="2"/>
-      <c r="Q370" s="2"/>
-      <c r="R370" s="2"/>
-      <c r="S370" s="2"/>
-      <c r="T370" s="2"/>
-      <c r="U370" s="2" t="s">
+      <c r="N370" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O370" s="5"/>
+      <c r="P370" s="5"/>
+      <c r="Q370" s="5"/>
+      <c r="R370" s="5"/>
+      <c r="S370" s="5"/>
+      <c r="T370" s="5"/>
+      <c r="U370" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V370" s="2" t="s">
+      <c r="V370" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -22985,9 +22845,7 @@
       <c r="K373" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="L373" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L373" s="7"/>
       <c r="M373" s="2" t="s">
         <v>75</v>
       </c>
@@ -23101,9 +22959,7 @@
         <v>344</v>
       </c>
       <c r="K375" s="2"/>
-      <c r="L375" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L375" s="7"/>
       <c r="M375" s="2" t="s">
         <v>75</v>
       </c>
@@ -23234,46 +23090,44 @@
       <c r="V377" s="2"/>
     </row>
     <row r="378" spans="1:22">
-      <c r="A378" s="2" t="s">
+      <c r="A378" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C378" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D378" s="2"/>
-      <c r="E378" s="2"/>
-      <c r="F378" s="2"/>
-      <c r="G378" s="2"/>
-      <c r="H378" s="2"/>
-      <c r="I378" s="2"/>
-      <c r="J378" s="2" t="s">
+      <c r="C378" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
+      <c r="I378" s="5"/>
+      <c r="J378" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K378" s="2" t="s">
+      <c r="K378" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L378" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M378" s="2" t="s">
+      <c r="L378" s="7"/>
+      <c r="M378" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N378" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O378" s="2"/>
-      <c r="P378" s="2"/>
-      <c r="Q378" s="2"/>
-      <c r="R378" s="2"/>
-      <c r="S378" s="2"/>
-      <c r="T378" s="2"/>
-      <c r="U378" s="2" t="s">
+      <c r="N378" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O378" s="5"/>
+      <c r="P378" s="5"/>
+      <c r="Q378" s="5"/>
+      <c r="R378" s="5"/>
+      <c r="S378" s="5"/>
+      <c r="T378" s="5"/>
+      <c r="U378" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V378" s="2" t="s">
+      <c r="V378" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -23413,9 +23267,7 @@
         <v>344</v>
       </c>
       <c r="K381" s="2"/>
-      <c r="L381" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L381" s="7"/>
       <c r="M381" s="2" t="s">
         <v>79</v>
       </c>
@@ -23639,9 +23491,7 @@
         <v>344</v>
       </c>
       <c r="K385" s="2"/>
-      <c r="L385" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L385" s="7"/>
       <c r="M385" s="2" t="s">
         <v>79</v>
       </c>
@@ -23668,46 +23518,44 @@
       <c r="V385" s="2"/>
     </row>
     <row r="386" spans="1:22">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="C386" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
-      <c r="H386" s="2"/>
-      <c r="I386" s="2"/>
-      <c r="J386" s="2" t="s">
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="5"/>
+      <c r="J386" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="K386" s="2" t="s">
+      <c r="K386" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="L386" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M386" s="2" t="s">
+      <c r="L386" s="7"/>
+      <c r="M386" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N386" s="2" t="s">
+      <c r="N386" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O386" s="2"/>
-      <c r="P386" s="2"/>
-      <c r="Q386" s="2"/>
-      <c r="R386" s="2"/>
-      <c r="S386" s="2"/>
-      <c r="T386" s="2"/>
-      <c r="U386" s="2" t="s">
+      <c r="O386" s="5"/>
+      <c r="P386" s="5"/>
+      <c r="Q386" s="5"/>
+      <c r="R386" s="5"/>
+      <c r="S386" s="5"/>
+      <c r="T386" s="5"/>
+      <c r="U386" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="V386" s="2" t="s">
+      <c r="V386" s="5" t="s">
         <v>436</v>
       </c>
     </row>
@@ -23816,44 +23664,42 @@
       <c r="V388" s="2"/>
     </row>
     <row r="389" spans="1:22">
-      <c r="A389" s="2" t="s">
+      <c r="A389" s="5" t="s">
         <v>949</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C389" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D389" s="2"/>
-      <c r="E389" s="2"/>
-      <c r="F389" s="2"/>
-      <c r="G389" s="2"/>
-      <c r="H389" s="2"/>
-      <c r="I389" s="2"/>
-      <c r="J389" s="2" t="s">
+      <c r="C389" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="5"/>
+      <c r="I389" s="5"/>
+      <c r="J389" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K389" s="2"/>
-      <c r="L389" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M389" s="2" t="s">
+      <c r="K389" s="5"/>
+      <c r="L389" s="7"/>
+      <c r="M389" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N389" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O389" s="2"/>
-      <c r="P389" s="2"/>
-      <c r="Q389" s="2"/>
-      <c r="R389" s="2"/>
-      <c r="S389" s="2"/>
-      <c r="T389" s="2"/>
-      <c r="U389" s="2" t="s">
+      <c r="N389" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O389" s="5"/>
+      <c r="P389" s="5"/>
+      <c r="Q389" s="5"/>
+      <c r="R389" s="5"/>
+      <c r="S389" s="5"/>
+      <c r="T389" s="5"/>
+      <c r="U389" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V389" s="2"/>
+      <c r="V389" s="5"/>
     </row>
     <row r="390" spans="1:22">
       <c r="A390" s="2" t="s">
@@ -24064,46 +23910,44 @@
       <c r="V393" s="2"/>
     </row>
     <row r="394" spans="1:22">
-      <c r="A394" s="2" t="s">
+      <c r="A394" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C394" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-      <c r="H394" s="2"/>
-      <c r="I394" s="2"/>
-      <c r="J394" s="2" t="s">
+      <c r="C394" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="5"/>
+      <c r="J394" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K394" s="2" t="s">
+      <c r="K394" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L394" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M394" s="2" t="s">
+      <c r="L394" s="7"/>
+      <c r="M394" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N394" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O394" s="2"/>
-      <c r="P394" s="2"/>
-      <c r="Q394" s="2"/>
-      <c r="R394" s="2"/>
-      <c r="S394" s="2"/>
-      <c r="T394" s="2"/>
-      <c r="U394" s="2" t="s">
+      <c r="N394" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O394" s="5"/>
+      <c r="P394" s="5"/>
+      <c r="Q394" s="5"/>
+      <c r="R394" s="5"/>
+      <c r="S394" s="5"/>
+      <c r="T394" s="5"/>
+      <c r="U394" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V394" s="2" t="s">
+      <c r="V394" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -24245,9 +24089,7 @@
       <c r="K397" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="L397" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L397" s="7"/>
       <c r="M397" s="2" t="s">
         <v>75</v>
       </c>
@@ -24361,9 +24203,7 @@
         <v>344</v>
       </c>
       <c r="K399" s="2"/>
-      <c r="L399" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L399" s="7"/>
       <c r="M399" s="2" t="s">
         <v>75</v>
       </c>
@@ -24494,44 +24334,42 @@
       <c r="V401" s="2"/>
     </row>
     <row r="402" spans="1:22">
-      <c r="A402" s="2" t="s">
+      <c r="A402" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D402" s="2"/>
-      <c r="E402" s="2"/>
-      <c r="F402" s="2"/>
-      <c r="G402" s="2"/>
-      <c r="H402" s="2"/>
-      <c r="I402" s="2"/>
-      <c r="J402" s="2" t="s">
+      <c r="C402" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="5"/>
+      <c r="I402" s="5"/>
+      <c r="J402" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K402" s="2"/>
-      <c r="L402" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M402" s="2" t="s">
+      <c r="K402" s="5"/>
+      <c r="L402" s="7"/>
+      <c r="M402" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N402" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O402" s="2"/>
-      <c r="P402" s="2"/>
-      <c r="Q402" s="2"/>
-      <c r="R402" s="2"/>
-      <c r="S402" s="2"/>
-      <c r="T402" s="2"/>
-      <c r="U402" s="2" t="s">
+      <c r="N402" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O402" s="5"/>
+      <c r="P402" s="5"/>
+      <c r="Q402" s="5"/>
+      <c r="R402" s="5"/>
+      <c r="S402" s="5"/>
+      <c r="T402" s="5"/>
+      <c r="U402" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V402" s="2"/>
+      <c r="V402" s="5"/>
     </row>
     <row r="403" spans="1:22">
       <c r="A403" s="2" t="s">
@@ -24669,9 +24507,7 @@
         <v>344</v>
       </c>
       <c r="K405" s="2"/>
-      <c r="L405" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L405" s="7"/>
       <c r="M405" s="2" t="s">
         <v>79</v>
       </c>
@@ -24895,9 +24731,7 @@
         <v>344</v>
       </c>
       <c r="K409" s="2"/>
-      <c r="L409" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="L409" s="7"/>
       <c r="M409" s="2" t="s">
         <v>79</v>
       </c>
@@ -24924,46 +24758,44 @@
       <c r="V409" s="2"/>
     </row>
     <row r="410" spans="1:22">
-      <c r="A410" s="2" t="s">
+      <c r="A410" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C410" s="2" t="s">
+      <c r="C410" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D410" s="2"/>
-      <c r="E410" s="2"/>
-      <c r="F410" s="2"/>
-      <c r="G410" s="2"/>
-      <c r="H410" s="2"/>
-      <c r="I410" s="2"/>
-      <c r="J410" s="2" t="s">
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="5"/>
+      <c r="J410" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="K410" s="2" t="s">
+      <c r="K410" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="L410" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M410" s="2" t="s">
+      <c r="L410" s="7"/>
+      <c r="M410" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N410" s="2" t="s">
+      <c r="N410" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O410" s="2"/>
-      <c r="P410" s="2"/>
-      <c r="Q410" s="2"/>
-      <c r="R410" s="2"/>
-      <c r="S410" s="2"/>
-      <c r="T410" s="2"/>
-      <c r="U410" s="2" t="s">
+      <c r="O410" s="5"/>
+      <c r="P410" s="5"/>
+      <c r="Q410" s="5"/>
+      <c r="R410" s="5"/>
+      <c r="S410" s="5"/>
+      <c r="T410" s="5"/>
+      <c r="U410" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="V410" s="2" t="s">
+      <c r="V410" s="5" t="s">
         <v>451</v>
       </c>
     </row>
@@ -25234,46 +25066,44 @@
       </c>
     </row>
     <row r="416" spans="1:22">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C416" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
-      <c r="H416" s="2"/>
-      <c r="I416" s="2"/>
-      <c r="J416" s="2" t="s">
+      <c r="C416" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
+      <c r="I416" s="5"/>
+      <c r="J416" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K416" s="2" t="s">
+      <c r="K416" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L416" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M416" s="2" t="s">
+      <c r="L416" s="7"/>
+      <c r="M416" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N416" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O416" s="2"/>
-      <c r="P416" s="2"/>
-      <c r="Q416" s="2"/>
-      <c r="R416" s="2"/>
-      <c r="S416" s="2"/>
-      <c r="T416" s="2"/>
-      <c r="U416" s="2" t="s">
+      <c r="N416" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O416" s="5"/>
+      <c r="P416" s="5"/>
+      <c r="Q416" s="5"/>
+      <c r="R416" s="5"/>
+      <c r="S416" s="5"/>
+      <c r="T416" s="5"/>
+      <c r="U416" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V416" s="2" t="s">
+      <c r="V416" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -25490,46 +25320,44 @@
       <c r="V420" s="2"/>
     </row>
     <row r="421" spans="1:22">
-      <c r="A421" s="2" t="s">
+      <c r="A421" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C421" s="2" t="s">
+      <c r="C421" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D421" s="2"/>
-      <c r="E421" s="2"/>
-      <c r="F421" s="2"/>
-      <c r="G421" s="2"/>
-      <c r="H421" s="2"/>
-      <c r="I421" s="2"/>
-      <c r="J421" s="2" t="s">
+      <c r="D421" s="5"/>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
+      <c r="G421" s="5"/>
+      <c r="H421" s="5"/>
+      <c r="I421" s="5"/>
+      <c r="J421" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="K421" s="2" t="s">
+      <c r="K421" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="L421" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M421" s="2" t="s">
+      <c r="L421" s="7"/>
+      <c r="M421" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N421" s="2" t="s">
+      <c r="N421" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O421" s="2"/>
-      <c r="P421" s="2"/>
-      <c r="Q421" s="2"/>
-      <c r="R421" s="2"/>
-      <c r="S421" s="2"/>
-      <c r="T421" s="2"/>
-      <c r="U421" s="2" t="s">
+      <c r="O421" s="5"/>
+      <c r="P421" s="5"/>
+      <c r="Q421" s="5"/>
+      <c r="R421" s="5"/>
+      <c r="S421" s="5"/>
+      <c r="T421" s="5"/>
+      <c r="U421" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="V421" s="2" t="s">
+      <c r="V421" s="5" t="s">
         <v>436</v>
       </c>
     </row>
@@ -25638,44 +25466,42 @@
       <c r="V423" s="2"/>
     </row>
     <row r="424" spans="1:22">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C424" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-      <c r="J424" s="2" t="s">
+      <c r="C424" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
+      <c r="I424" s="5"/>
+      <c r="J424" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K424" s="2"/>
-      <c r="L424" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M424" s="2" t="s">
+      <c r="K424" s="5"/>
+      <c r="L424" s="7"/>
+      <c r="M424" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N424" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O424" s="2"/>
-      <c r="P424" s="2"/>
-      <c r="Q424" s="2"/>
-      <c r="R424" s="2"/>
-      <c r="S424" s="2"/>
-      <c r="T424" s="2"/>
-      <c r="U424" s="2" t="s">
+      <c r="N424" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O424" s="5"/>
+      <c r="P424" s="5"/>
+      <c r="Q424" s="5"/>
+      <c r="R424" s="5"/>
+      <c r="S424" s="5"/>
+      <c r="T424" s="5"/>
+      <c r="U424" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V424" s="2"/>
+      <c r="V424" s="5"/>
     </row>
     <row r="425" spans="1:22">
       <c r="A425" s="2" t="s">
